--- a/Input/MATSimInputSimple.xlsx
+++ b/Input/MATSimInputSimple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A912D-8A6C-46CD-B78A-1FE1D2336165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF67F90-D144-4E1D-9CF1-99A92351F465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="16695" windowHeight="2985" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input/MATSimInputSimple.xlsx
+++ b/Input/MATSimInputSimple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF67F90-D144-4E1D-9CF1-99A92351F465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E327E-DA49-494B-82F8-DFA0D01794DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="16695" windowHeight="2985" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>NumSims</t>
   </si>
@@ -96,25 +96,19 @@
     <t>ILs</t>
   </si>
   <si>
-    <t>50,50</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1.5,4.5</t>
-  </si>
-  <si>
     <t>Ceneri2018</t>
   </si>
   <si>
-    <t>1,0.5</t>
-  </si>
-  <si>
-    <t>Mp40,V40</t>
-  </si>
-  <si>
     <t>LaneDir</t>
+  </si>
+  <si>
+    <t>Mp40</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>96,4</t>
   </si>
 </sst>
 </file>
@@ -482,32 +476,32 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="16" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" customWidth="1"/>
+    <col min="12" max="12" width="13.73046875" customWidth="1"/>
+    <col min="13" max="16" width="11.1328125" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10.59765625" customWidth="1"/>
+    <col min="21" max="21" width="10.86328125" customWidth="1"/>
+    <col min="23" max="23" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>19</v>
@@ -578,9 +572,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -592,10 +586,10 @@
         <v>0.5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -613,19 +607,19 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>17</v>

--- a/Input/MATSimInputSimple.xlsx
+++ b/Input/MATSimInputSimple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E327E-DA49-494B-82F8-DFA0D01794DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7430B5B6-D3FE-41CA-954D-1F63CB40307A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>NumSims</t>
   </si>
@@ -96,27 +96,47 @@
     <t>ILs</t>
   </si>
   <si>
-    <t>Ceneri2018</t>
+    <t>50,50</t>
   </si>
   <si>
     <t>LaneDir</t>
   </si>
   <si>
-    <t>Mp40</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>96,4</t>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Denges2003</t>
+  </si>
+  <si>
+    <t>V,Mp,Mn</t>
+  </si>
+  <si>
+    <t>AGB2002</t>
+  </si>
+  <si>
+    <t>Mattstetten2003</t>
+  </si>
+  <si>
+    <t>Gotthard2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -140,20 +160,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,10 +646,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -485,11 +658,11 @@
     <col min="2" max="2" width="10.3984375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7.1328125" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.19921875" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="10.73046875" customWidth="1"/>
     <col min="12" max="12" width="13.73046875" customWidth="1"/>
@@ -501,145 +674,299 @@
     <col min="23" max="23" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>1000000</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16">
         <v>0</v>
       </c>
     </row>

--- a/Input/MATSimInputSimple.xlsx
+++ b/Input/MATSimInputSimple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7430B5B6-D3FE-41CA-954D-1F63CB40307A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BBDECA-CE58-495B-8C21-B786E91F0A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>NumSims</t>
   </si>
@@ -96,13 +96,16 @@
     <t>ILs</t>
   </si>
   <si>
-    <t>50,50</t>
-  </si>
-  <si>
     <t>LaneDir</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>85,15</t>
+  </si>
+  <si>
+    <t>96,4</t>
   </si>
   <si>
     <t>Folder</t>
@@ -111,9 +114,6 @@
     <t>Denges2003</t>
   </si>
   <si>
-    <t>V,Mp,Mn</t>
-  </si>
-  <si>
     <t>AGB2002</t>
   </si>
   <si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Gotthard2003</t>
+  </si>
+  <si>
+    <t>Mp.Mp20,Mp.Mp30,Mp.Mp50,Mp.Mp70</t>
+  </si>
+  <si>
+    <t>Mp.Mp20,Mp.Mp40,Mp.Mp60,Mp.Mp80</t>
+  </si>
+  <si>
+    <t>100,0</t>
   </si>
 </sst>
 </file>
@@ -281,9 +290,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,6 +339,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -646,10 +667,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -675,298 +696,742 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="E2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
         <v>1000</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="6">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="8">
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="E3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>1000</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="10">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10">
-        <v>1</v>
-      </c>
-      <c r="U3" s="10">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
-        <v>0</v>
-      </c>
-      <c r="X3" s="12">
+      <c r="S3" s="11">
+        <v>1</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11">
+        <v>0</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0</v>
+      </c>
+      <c r="X3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="15">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="14">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="11">
+        <v>1</v>
+      </c>
+      <c r="T7" s="11">
+        <v>1</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="E8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>1000</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="14">
-        <v>1</v>
-      </c>
-      <c r="M4" s="14">
-        <v>1</v>
-      </c>
-      <c r="N4" s="14">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>0</v>
-      </c>
-      <c r="R4" s="14" t="s">
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="14">
-        <v>1</v>
-      </c>
-      <c r="T4" s="14">
-        <v>1</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="16">
+      <c r="S8" s="7">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="15">
+        <v>1</v>
+      </c>
+      <c r="T10" s="15">
+        <v>1</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
         <v>0</v>
       </c>
     </row>

--- a/Input/MATSimInputSimple.xlsx
+++ b/Input/MATSimInputSimple.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F70F40-6633-462F-8E5F-7FF19215BF9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="43">
   <si>
     <t>NumSims</t>
   </si>
@@ -111,16 +110,55 @@
     <t>Denges2003</t>
   </si>
   <si>
-    <t>Mp.Mp20,Mp.Mp30,Mp.Mp50,Mp.Mp70</t>
-  </si>
-  <si>
-    <t>AGB2002xx</t>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>V,Mp,Mn</t>
+  </si>
+  <si>
+    <t>50,50</t>
+  </si>
+  <si>
+    <t>Mattstetten2003</t>
+  </si>
+  <si>
+    <t>Gotthard2003</t>
+  </si>
+  <si>
+    <t>85,15</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>0.9,0.1</t>
+  </si>
+  <si>
+    <t>1.5,4.5</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>1.5,5.5</t>
+  </si>
+  <si>
+    <t>2.5,8.5</t>
+  </si>
+  <si>
+    <t>0.7,0.3</t>
+  </si>
+  <si>
+    <t>AGB2002A15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -222,11 +260,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,7 +337,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,39 +677,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" customWidth="1"/>
-    <col min="13" max="16" width="11.1328125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="16" width="11.140625" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.59765625" customWidth="1"/>
-    <col min="21" max="21" width="10.86328125" customWidth="1"/>
-    <col min="23" max="23" width="12.3984375" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -672,12 +781,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6">
         <v>7.0000000000000007E-2</v>
@@ -685,11 +794,11 @@
       <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -704,7 +813,7 @@
         <v>1000</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -743,6 +852,2374 @@
         <v>0</v>
       </c>
       <c r="X2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="14">
+        <v>1</v>
+      </c>
+      <c r="T7" s="14">
+        <v>1</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1</v>
+      </c>
+      <c r="T9" s="10">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1</v>
+      </c>
+      <c r="T12" s="10">
+        <v>1</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="14">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>1</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1</v>
+      </c>
+      <c r="T15" s="10">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="14">
+        <v>1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="14">
+        <v>1</v>
+      </c>
+      <c r="T16" s="14">
+        <v>1</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>1</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1</v>
+      </c>
+      <c r="T18" s="10">
+        <v>1</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>0</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="14">
+        <v>1</v>
+      </c>
+      <c r="T19" s="14">
+        <v>1</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="10">
+        <v>1</v>
+      </c>
+      <c r="T21" s="10">
+        <v>1</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
+        <v>0</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="14">
+        <v>1</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="14">
+        <v>1</v>
+      </c>
+      <c r="T22" s="14">
+        <v>1</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <v>0</v>
+      </c>
+      <c r="W22" s="14">
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="10">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10">
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="10">
+        <v>1</v>
+      </c>
+      <c r="T24" s="10">
+        <v>1</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
+        <v>0</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="10">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10">
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>1</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="6">
+        <v>1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>1</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>0</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="10">
+        <v>1</v>
+      </c>
+      <c r="T27" s="10">
+        <v>1</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="14">
+        <v>1</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="14">
+        <v>1</v>
+      </c>
+      <c r="T28" s="14">
+        <v>1</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0</v>
+      </c>
+      <c r="W28" s="14">
+        <v>0</v>
+      </c>
+      <c r="X28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0</v>
+      </c>
+      <c r="V29" s="6">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10">
+        <v>1</v>
+      </c>
+      <c r="N30" s="10">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="10">
+        <v>1</v>
+      </c>
+      <c r="T30" s="10">
+        <v>1</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="14">
+        <v>1</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1</v>
+      </c>
+      <c r="N31" s="14">
+        <v>1</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="14">
+        <v>1</v>
+      </c>
+      <c r="T31" s="14">
+        <v>1</v>
+      </c>
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0</v>
+      </c>
+      <c r="W31" s="14">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="6">
+        <v>1</v>
+      </c>
+      <c r="T32" s="6">
+        <v>1</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0</v>
+      </c>
+      <c r="V32" s="6">
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
+      <c r="M33" s="10">
+        <v>1</v>
+      </c>
+      <c r="N33" s="10">
+        <v>1</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="10">
+        <v>1</v>
+      </c>
+      <c r="T33" s="10">
+        <v>1</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0</v>
+      </c>
+      <c r="W33" s="10">
+        <v>0</v>
+      </c>
+      <c r="X33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="14">
+        <v>1</v>
+      </c>
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="14">
+        <v>1</v>
+      </c>
+      <c r="O34" s="14">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="14">
+        <v>1</v>
+      </c>
+      <c r="T34" s="14">
+        <v>1</v>
+      </c>
+      <c r="U34" s="14">
+        <v>0</v>
+      </c>
+      <c r="V34" s="14">
+        <v>0</v>
+      </c>
+      <c r="W34" s="14">
+        <v>0</v>
+      </c>
+      <c r="X34" s="16">
         <v>0</v>
       </c>
     </row>

--- a/Input/MATSimInputSimple.xlsx
+++ b/Input/MATSimInputSimple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F70F40-6633-462F-8E5F-7FF19215BF9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39076C-DD23-4114-BADC-BDD253DB8524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -573,32 +573,32 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" customWidth="1"/>
-    <col min="13" max="16" width="11.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="16" width="11.140625" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.59765625" customWidth="1"/>
-    <col min="21" max="21" width="10.86328125" customWidth="1"/>
-    <col min="23" max="23" width="12.3984375" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -672,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2000000</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="6">
         <v>0</v>
